--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357649.995754167</v>
+        <v>2355273.368806802</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078336</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>338.2570046283863</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.09589357289194</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>185.5217629586825</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>23.4724014301052</v>
+        <v>56.70882917873504</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874961</v>
       </c>
       <c r="S7" t="n">
-        <v>127.4132325470139</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>301.6369270003922</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256093</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329281</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.8947162238215</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>238.1282460566148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4424239494328</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1302.576789404184</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.576789404184</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1302.576789404184</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1302.576789404184</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1302.576789404184</v>
+        <v>918.0161179218665</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014359</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.0244191129133</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>276.0244191129133</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478913</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109307</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>276.0244191129133</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>276.0244191129133</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>1589.988596769089</v>
       </c>
       <c r="C5" t="n">
-        <v>1287.435190625612</v>
+        <v>1221.026079828678</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.435190625612</v>
+        <v>1221.026079828678</v>
       </c>
       <c r="E5" t="n">
-        <v>901.6469380273675</v>
+        <v>835.2378272304334</v>
       </c>
       <c r="F5" t="n">
-        <v>490.6610332377599</v>
+        <v>828.2923264812299</v>
       </c>
       <c r="G5" t="n">
-        <v>74.95628296204876</v>
+        <v>412.5875762055188</v>
       </c>
       <c r="H5" t="n">
-        <v>74.95628296204876</v>
+        <v>108.528432203089</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>1980.127928744901</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1589.988596769089</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.8620968941286</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C7" t="n">
-        <v>514.8620968941286</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941286</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146468</v>
       </c>
       <c r="S7" t="n">
-        <v>1507.745885178524</v>
+        <v>1341.861475306329</v>
       </c>
       <c r="T7" t="n">
-        <v>1507.745885178524</v>
+        <v>1341.861475306329</v>
       </c>
       <c r="U7" t="n">
-        <v>1507.745885178524</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1253.061396972637</v>
+        <v>798.0586496042795</v>
       </c>
       <c r="W7" t="n">
-        <v>963.6442269356761</v>
+        <v>798.0586496042795</v>
       </c>
       <c r="X7" t="n">
-        <v>735.6546760376588</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.8620968941286</v>
+        <v>349.276519562732</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1101.768613746537</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>732.806096806125</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>374.5403981993745</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810658</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070929</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>565.1427566090756</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.2996089082458</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,7 +5127,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>996.5276398439743</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>827.5914569160674</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>677.4748175037316</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>529.5617239213385</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>382.6717764234281</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>215.4756771383081</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.968683817744</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1178.176104674214</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.17510664033</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,10 +6230,10 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,16 +6251,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
         <v>2283.159972732779</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>199.751631150407</v>
+        <v>114.3555089013356</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
-        <v>294.834493518473</v>
+        <v>98.24448441976733</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569276</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012299</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>48.39475227997616</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>19.85228889679105</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719708</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719677</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.36846171968</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.092164296</v>
+        <v>-725022.0921642964</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.6914116235</v>
+        <v>389729.6914116241</v>
       </c>
       <c r="D6" t="n">
-        <v>389729.6914116236</v>
+        <v>389729.6914116237</v>
       </c>
       <c r="E6" t="n">
-        <v>-10755.39014266839</v>
+        <v>-10790.12806810379</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818773</v>
+        <v>496695.3135564413</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818777</v>
+        <v>496695.3135564415</v>
       </c>
       <c r="I6" t="n">
-        <v>496730.0514818772</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="J6" t="n">
-        <v>329124.873671895</v>
+        <v>329090.1357464592</v>
       </c>
       <c r="K6" t="n">
-        <v>496730.0514818774</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="L6" t="n">
-        <v>496730.0514818774</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="M6" t="n">
-        <v>364122.7577529509</v>
+        <v>364088.019827515</v>
       </c>
       <c r="N6" t="n">
-        <v>496730.0514818773</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="O6" t="n">
-        <v>496730.0514818775</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818774</v>
+        <v>496695.3135564417</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802242</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>10.98396408902676</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>72.51957944532042</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>40.18789243035468</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>42.23751124236529</v>
+        <v>9.001083493735422</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460824007</v>
       </c>
       <c r="S7" t="n">
-        <v>67.2492278147236</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>80.2934430718696</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176728</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.8349695036629</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.68993712827327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.667647334570338e-14</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.953513792444657e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31847,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882572</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,22 +35021,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420053</v>
+        <v>347.9240135432997</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>529.7874664804599</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
